--- a/examples/YoutubePromo.xlsx
+++ b/examples/YoutubePromo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhardbuhl/git/baangt/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bernh\git\baangt\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B805BABC-DAE5-9847-AF80-96EC44CA2A4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8774754E-4857-45FF-8673-5ECA9F7870F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="1740" windowWidth="16280" windowHeight="16960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestStepExecution" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="30">
   <si>
     <t>Activity</t>
   </si>
@@ -168,8 +168,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -215,15 +215,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F4FF14FD-0EE9-AF47-9DB2-159ABFC3BC9A}" name="Tabelle3" displayName="Tabelle3" ref="A1:B105" totalsRowShown="0">
   <autoFilter ref="A1:B105" xr:uid="{3BD27700-DD1B-7F40-B901-993FDCEA32A3}"/>
   <tableColumns count="2">
-    <tableColumn id="10" xr3:uid="{B0BA21E1-CD2A-F149-B33F-85D81F38999B}" name="url1" dataDxfId="1" dataCellStyle="Link"/>
-    <tableColumn id="1" xr3:uid="{DA5984C3-AC2F-7B45-B741-45BD135F36E8}" name="duration" dataDxfId="0" dataCellStyle="Link"/>
+    <tableColumn id="10" xr3:uid="{B0BA21E1-CD2A-F149-B33F-85D81F38999B}" name="url1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{DA5984C3-AC2F-7B45-B741-45BD135F36E8}" name="duration" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -550,20 +550,20 @@
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="45.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" customWidth="1"/>
+    <col min="7" max="7" width="8.46484375" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="9" max="9" width="7.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -600,7 +600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -608,7 +608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -622,7 +622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -630,7 +630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -649,7 +649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -667,18 +667,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" topLeftCell="A520" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="A522" sqref="A522:XFD625"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -686,7 +686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -694,7 +694,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -702,7 +702,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -710,7 +710,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -718,7 +718,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -726,7 +726,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -734,7 +734,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -742,7 +742,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -750,7 +750,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -758,7 +758,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -766,7 +766,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -774,7 +774,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -782,7 +782,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -790,7 +790,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -798,7 +798,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -806,7 +806,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -814,7 +814,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -822,7 +822,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -830,7 +830,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -838,7 +838,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -846,7 +846,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -854,7 +854,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -862,7 +862,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -870,7 +870,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -878,7 +878,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -886,7 +886,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -894,7 +894,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -902,7 +902,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -910,7 +910,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -918,7 +918,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -926,7 +926,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -934,7 +934,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -942,7 +942,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -950,7 +950,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
@@ -958,7 +958,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -966,7 +966,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
@@ -974,7 +974,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
@@ -982,7 +982,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
@@ -990,7 +990,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -998,7 +998,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>28</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>18</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>27</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>28</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>29</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>15</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>17</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>18</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>27</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>28</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>29</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>13</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>15</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>17</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>18</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>27</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>28</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>29</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>13</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>15</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>16</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>17</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>18</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>28</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>29</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>13</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>15</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>16</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>17</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>18</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>27</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>28</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>17</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>18</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>27</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>28</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>29</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>13</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>15</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>16</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>17</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>18</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>27</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>28</v>
       </c>
@@ -1510,11 +1510,4171 @@
         <v>360</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B105" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B113" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B121" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B127" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B129" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B132" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B135" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B136" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B137" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B142" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B143" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B144" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B145" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B151" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B152" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B153" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B156" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B157" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B159" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B160" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B161" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B165" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B166" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B167" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B168" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B169" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B172" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B173" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B175" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B176" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B177" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B180" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B181" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B182" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B183" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B184" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B185" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B189" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B191" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B192" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B193" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B195" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B196" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B197" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B198" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B199" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B200" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B201" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B203" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B204" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B205" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B206" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B207" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B208" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B209" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B211" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B212" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B213" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B214" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A215" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B215" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B216" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B217" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A219" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B219" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A220" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B220" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A221" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B221" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A222" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B222" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A223" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B223" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A224" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B224" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A225" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B225" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A226" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A227" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B227" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A228" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B228" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A229" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B229" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A230" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B230" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A231" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B231" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A232" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B232" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A233" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B233" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A234" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B234" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A235" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B235" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A236" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B236" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A237" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B237" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A238" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B238" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A239" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B239" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A240" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B240" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A241" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B241" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A242" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B242" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A243" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B243" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A244" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B244" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A245" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B245" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A246" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B246" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A247" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B247" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A248" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B248" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A249" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B249" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A250" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B250" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A251" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A252" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B252" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A253" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B253" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A254" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B254" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A255" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B255" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A256" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B256" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A257" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B257" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A258" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B258" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A259" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B259" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A260" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B260" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A261" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B261" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A262" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B262" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A263" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B263" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A264" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B264" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A265" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B265" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A266" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B266" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A267" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B267" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A268" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B268" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A269" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B269" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A270" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B270" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A271" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B271" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A272" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B272" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A273" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B273" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A274" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B274" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A275" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A276" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B276" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A277" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B277" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A278" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B278" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A279" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B279" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A280" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B280" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A281" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B281" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A282" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B282" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A283" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A284" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B284" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A285" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B285" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A286" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B286" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A287" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B287" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A288" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B288" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A289" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B289" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A290" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B290" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A291" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A292" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B292" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A293" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B293" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A294" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B294" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A295" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B295" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A296" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B296" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A297" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B297" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A298" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B298" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A299" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B299" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A300" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B300" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A301" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B301" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A302" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B302" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A303" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B303" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A304" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B304" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A305" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B305" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A306" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B306" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A307" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B307" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A308" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B308" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A309" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B309" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A310" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B310" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A311" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B311" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A312" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B312" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A313" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B313" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A314" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B314" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A315" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B315" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A316" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B316" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A317" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B317" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A318" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B318" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A319" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B319" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A320" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B320" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A321" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B321" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A322" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B322" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A323" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B323" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A324" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B324" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A325" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B325" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A326" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B326" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A327" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B327" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A328" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B328" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A329" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B329" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A330" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B330" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A331" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B331" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A332" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B332" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A333" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B333" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A334" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B334" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A335" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B335" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A336" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B336" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A337" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B337" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A338" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B338" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A339" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B339" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A340" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B340" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A341" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B341" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A342" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B342" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A343" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B343" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A344" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B344" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A345" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B345" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A346" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B346" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A347" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B347" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A348" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B348" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A349" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B349" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A350" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B350" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A351" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B351" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A352" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B352" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A353" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B353" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A354" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B354" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A355" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B355" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A356" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B356" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A357" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B357" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A358" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B358" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A359" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B359" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A360" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B360" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A361" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B361" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A362" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B362" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A363" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B363" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A364" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B364" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A365" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B365" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A366" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B366" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A367" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B367" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A368" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B368" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A369" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B369" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A370" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B370" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A371" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B371" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A372" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B372" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A373" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B373" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A374" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B374" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A375" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B375" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A376" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B376" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A377" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B377" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A378" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B378" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A379" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B379" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A380" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B380" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A381" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B381" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A382" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B382" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A383" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B383" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A384" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B384" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A385" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B385" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A386" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B386" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A387" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B387" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A388" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B388" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A389" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B389" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A390" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B390" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A391" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B391" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A392" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B392" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A393" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B393" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A394" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B394" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A395" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B395" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A396" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B396" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A397" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B397" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A398" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B398" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A399" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B399" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A400" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B400" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A401" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B401" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A402" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B402" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A403" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B403" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A404" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B404" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A405" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B405" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A406" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B406" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A407" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B407" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A408" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B408" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A409" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B409" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A410" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B410" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A411" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B411" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A412" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B412" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A413" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B413" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A414" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B414" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A415" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B415" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A416" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B416" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A417" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B417" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A418" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B418" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A419" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B419" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A420" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B420" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A421" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B421" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A422" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B422" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A423" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B423" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A424" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B424" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A425" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B425" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A426" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B426" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A427" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B427" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A428" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B428" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A429" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B429" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A430" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B430" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A431" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B431" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A432" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B432" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A433" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B433" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A434" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B434" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A435" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B435" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A436" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B436" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A437" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B437" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A438" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B438" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A439" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B439" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A440" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B440" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A441" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B441" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A442" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B442" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A443" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B443" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A444" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B444" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A445" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B445" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A446" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B446" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A447" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B447" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A448" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B448" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A449" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B449" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A450" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B450" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A451" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B451" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A452" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B452" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A453" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B453" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A454" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B454" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A455" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B455" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A456" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B456" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A457" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B457" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A458" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B458" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A459" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B459" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A460" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B460" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A461" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B461" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A462" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B462" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A463" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B463" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A464" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B464" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A465" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B465" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A466" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B466" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A467" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B467" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A468" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B468" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A469" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B469" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A470" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B470" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A471" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B471" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A472" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B472" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A473" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B473" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A474" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B474" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A475" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B475" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A476" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B476" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A477" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B477" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A478" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B478" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A479" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B479" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A480" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B480" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A481" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B481" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A482" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B482" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A483" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B483" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A484" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B484" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A485" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B485" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A486" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B486" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A487" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B487" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A488" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B488" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A489" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B489" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A490" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B490" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A491" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B491" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A492" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B492" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A493" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B493" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A494" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B494" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A495" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B495" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B496" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A497" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B497" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A498" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B498" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A499" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B499" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A500" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B500" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A501" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B501" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A502" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B502" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A503" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B503" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A504" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B504" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A505" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B505" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A506" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B506" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A507" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B507" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A508" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B508" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A509" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B509" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A510" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B510" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A511" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B511" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A512" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B512" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A513" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B513" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A514" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B514" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A515" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B515" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A516" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B516" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A517" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B517" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A518" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B518" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A519" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B519" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A520" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B520" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A521" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B521" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A522" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B522" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A523" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B523" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A524" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B524" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A525" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B525" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A526" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B526" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A527" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B527" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A528" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B528" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A529" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B529" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A530" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B530" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A531" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B531" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A532" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B532" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A533" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B533" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A534" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B534" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A535" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B535" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A536" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B536" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A537" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B537" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A538" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B538" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A539" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B539" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A540" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B540" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A541" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B541" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A542" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B542" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A543" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B543" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A544" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B544" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A545" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B545" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A546" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B546" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A547" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B547" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A548" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B548" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A549" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B549" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A550" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B550" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A551" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B551" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A552" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B552" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A553" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B553" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A554" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B554" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A555" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B555" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A556" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B556" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A557" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B557" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A558" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B558" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A559" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B559" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A560" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B560" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A561" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B561" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A562" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B562" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A563" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B563" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A564" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B564" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A565" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B565" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A566" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B566" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A567" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B567" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A568" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B568" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A569" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B569" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A570" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B570" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A571" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B571" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A572" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B572" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A573" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B573" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A574" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B574" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A575" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B575" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A576" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B576" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A577" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B577" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A578" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B578" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A579" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B579" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A580" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B580" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A581" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B581" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A582" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B582" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A583" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B583" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A584" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B584" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A585" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B585" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A586" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B586" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A587" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B587" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A588" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B588" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A589" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B589" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A590" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B590" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A591" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B591" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A592" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B592" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A593" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B593" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A594" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B594" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A595" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B595" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A596" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B596" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A597" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B597" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A598" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B598" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A599" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B599" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A600" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B600" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A601" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B601" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A602" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B602" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A603" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B603" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A604" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B604" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A605" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B605" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A606" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B606" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A607" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B607" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A608" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B608" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A609" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B609" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A610" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B610" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A611" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B611" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A612" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B612" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A613" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B613" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A614" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B614" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A615" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B615" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A616" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B616" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A617" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B617" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A618" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B618" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A619" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B619" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A620" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B620" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A621" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B621" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A622" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B622" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A623" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B623" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A624" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B624" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A625" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B625" s="1">
         <v>603</v>
       </c>
     </row>
@@ -1534,10 +5694,75 @@
     <hyperlink ref="A87" r:id="rId11" xr:uid="{E017EF80-6DC9-664E-A0D6-4C1D6860F55E}"/>
     <hyperlink ref="A95" r:id="rId12" xr:uid="{6D5EB2CC-E3E8-2B4F-AC91-71AEF3D2FC97}"/>
     <hyperlink ref="A103" r:id="rId13" xr:uid="{76609A9B-ADB9-6E46-B0FC-25C53781C6B4}"/>
+    <hyperlink ref="A111" r:id="rId14" xr:uid="{485459AA-3DA2-45AA-A303-6E0D2B332077}"/>
+    <hyperlink ref="A119" r:id="rId15" xr:uid="{0F80EC78-7FE4-4DB2-BF12-639179893EF3}"/>
+    <hyperlink ref="A127" r:id="rId16" xr:uid="{89EC684F-C29E-41C5-981E-ECDA24C2752D}"/>
+    <hyperlink ref="A135" r:id="rId17" xr:uid="{13AB2FC4-23DE-4A75-BF80-0B985ED635B7}"/>
+    <hyperlink ref="A143" r:id="rId18" xr:uid="{50C6FB76-8ED0-4B25-BB39-B9D6C8BAFADC}"/>
+    <hyperlink ref="A151" r:id="rId19" xr:uid="{1820AEEE-08A4-4E5E-9DC9-E89CE4FBA092}"/>
+    <hyperlink ref="A159" r:id="rId20" xr:uid="{E0A1E0A7-35B1-47A7-B2B8-CFDA6A9A96B4}"/>
+    <hyperlink ref="A167" r:id="rId21" xr:uid="{0F22F46A-B86D-4FDF-B70A-093279049FA9}"/>
+    <hyperlink ref="A175" r:id="rId22" xr:uid="{CD6A60CB-9321-4BD9-94F2-A6D2F84F7F46}"/>
+    <hyperlink ref="A183" r:id="rId23" xr:uid="{0533C485-6898-481E-A2AE-7DC2DD22A6F9}"/>
+    <hyperlink ref="A191" r:id="rId24" xr:uid="{41E53323-7180-4E42-AFF1-F5DE5D53C58C}"/>
+    <hyperlink ref="A199" r:id="rId25" xr:uid="{3A48DEB0-C25C-438F-A4E0-B4538A0AAF53}"/>
+    <hyperlink ref="A207" r:id="rId26" xr:uid="{752A1149-E2BA-4E6B-A0AA-AB337072F280}"/>
+    <hyperlink ref="A215" r:id="rId27" xr:uid="{04147E9F-A72B-4339-8ECF-90ECB65AAE92}"/>
+    <hyperlink ref="A223" r:id="rId28" xr:uid="{1FDC90B6-06B1-43D8-B7F4-CC22283FE650}"/>
+    <hyperlink ref="A231" r:id="rId29" xr:uid="{0F1524F8-DD8F-4FAA-A53B-0166EE5FEAC6}"/>
+    <hyperlink ref="A239" r:id="rId30" xr:uid="{7C98397F-2451-4B88-8FD2-69959091358B}"/>
+    <hyperlink ref="A247" r:id="rId31" xr:uid="{1C01BD75-E45D-4482-BA12-E4B918145F9C}"/>
+    <hyperlink ref="A255" r:id="rId32" xr:uid="{5247B88D-45AB-4078-A90D-F7B571E95499}"/>
+    <hyperlink ref="A263" r:id="rId33" xr:uid="{D894686B-8124-47F1-BE4C-D4569FE5DBAD}"/>
+    <hyperlink ref="A271" r:id="rId34" xr:uid="{0298004D-BA7B-4F0A-9183-C4FEAD3AC224}"/>
+    <hyperlink ref="A279" r:id="rId35" xr:uid="{2F93969C-9FEB-481B-9A3D-DEBEBE57A8AB}"/>
+    <hyperlink ref="A287" r:id="rId36" xr:uid="{1A0D4C49-E2DC-4CAD-BF9B-ECAFBCE13E8E}"/>
+    <hyperlink ref="A295" r:id="rId37" xr:uid="{DB7472E9-4DDD-45AF-939A-555B5CF06A57}"/>
+    <hyperlink ref="A303" r:id="rId38" xr:uid="{AF00AD7E-A527-490E-B08E-0BBD50335675}"/>
+    <hyperlink ref="A311" r:id="rId39" xr:uid="{CF0ED8FB-0547-4A58-918B-A08870004C10}"/>
+    <hyperlink ref="A319" r:id="rId40" xr:uid="{53CACE95-10F5-4BB6-A2D5-5FA2041604E5}"/>
+    <hyperlink ref="A327" r:id="rId41" xr:uid="{963210B7-50D5-4BBA-BE2E-FDF15E6F8720}"/>
+    <hyperlink ref="A335" r:id="rId42" xr:uid="{B5F5C713-5999-4A5D-AA62-5F3FB1CCFC13}"/>
+    <hyperlink ref="A343" r:id="rId43" xr:uid="{8E29DCF1-BF16-4892-A235-E28244275192}"/>
+    <hyperlink ref="A351" r:id="rId44" xr:uid="{05D68FA9-1B2D-42C6-A4E9-97F7F415CA04}"/>
+    <hyperlink ref="A359" r:id="rId45" xr:uid="{FAEE459D-316B-42E9-A888-9E5252E64376}"/>
+    <hyperlink ref="A367" r:id="rId46" xr:uid="{6AC6F1B4-05F0-408E-A0CC-20AE8051783E}"/>
+    <hyperlink ref="A375" r:id="rId47" xr:uid="{8293B306-F01B-434D-A50D-72B8DE0DA664}"/>
+    <hyperlink ref="A383" r:id="rId48" xr:uid="{187E0DAF-D8B9-462A-A71B-CBC5C0C1A598}"/>
+    <hyperlink ref="A391" r:id="rId49" xr:uid="{075BEB3E-9792-4750-BF32-B94AC3BB897E}"/>
+    <hyperlink ref="A399" r:id="rId50" xr:uid="{4EEDE858-64B7-431F-837D-AC4576C53D18}"/>
+    <hyperlink ref="A407" r:id="rId51" xr:uid="{7F65084D-459C-4338-AA46-5A377239A66B}"/>
+    <hyperlink ref="A415" r:id="rId52" xr:uid="{3E823BB5-A995-48D6-8013-32477B421CC6}"/>
+    <hyperlink ref="A423" r:id="rId53" xr:uid="{B95F7716-C122-4804-88F4-91A79B5B5C95}"/>
+    <hyperlink ref="A431" r:id="rId54" xr:uid="{9034F5C5-3A31-4E48-BBD3-32999BA453BC}"/>
+    <hyperlink ref="A439" r:id="rId55" xr:uid="{B40D2D02-BED7-4EC2-AEE3-8B26EA2551E1}"/>
+    <hyperlink ref="A447" r:id="rId56" xr:uid="{4591381C-2B7F-4381-ACB8-DF1FE62B2757}"/>
+    <hyperlink ref="A455" r:id="rId57" xr:uid="{46835F89-FECB-4705-B882-83ECCA2DBCA1}"/>
+    <hyperlink ref="A463" r:id="rId58" xr:uid="{2AE2D2E7-B534-4EC3-8711-50F64B2C6700}"/>
+    <hyperlink ref="A471" r:id="rId59" xr:uid="{919A33FE-042C-459E-815D-AA378B002A4B}"/>
+    <hyperlink ref="A479" r:id="rId60" xr:uid="{B0A85B04-A476-48F5-A260-7660071F613E}"/>
+    <hyperlink ref="A487" r:id="rId61" xr:uid="{8E1F18EA-D678-4AB6-B5DF-F5578E1A0EC9}"/>
+    <hyperlink ref="A495" r:id="rId62" xr:uid="{A15392E2-29DB-4554-BBA7-92E5808CD078}"/>
+    <hyperlink ref="A503" r:id="rId63" xr:uid="{B0C1FB2A-AF56-4790-953A-D8E41ED6B020}"/>
+    <hyperlink ref="A511" r:id="rId64" xr:uid="{83D01605-9E35-440C-84F8-F0DADDD77924}"/>
+    <hyperlink ref="A519" r:id="rId65" xr:uid="{57EB7E48-30E4-4406-99B4-847892F55072}"/>
+    <hyperlink ref="A527" r:id="rId66" xr:uid="{F06BC693-2A5F-4F74-875A-158211E9B0B5}"/>
+    <hyperlink ref="A535" r:id="rId67" xr:uid="{EE29EFFF-8A4B-4565-B526-D1B74124655F}"/>
+    <hyperlink ref="A543" r:id="rId68" xr:uid="{53D04C9D-EF96-473C-BDE0-FD76073FFCFF}"/>
+    <hyperlink ref="A551" r:id="rId69" xr:uid="{819E720C-9E8A-42B1-9A99-16A6F396B526}"/>
+    <hyperlink ref="A559" r:id="rId70" xr:uid="{266A8081-2969-4782-97B9-2ECD4667FC36}"/>
+    <hyperlink ref="A567" r:id="rId71" xr:uid="{BF9D3AD4-A3D0-4176-AB20-C9B8F02E4080}"/>
+    <hyperlink ref="A575" r:id="rId72" xr:uid="{359A4625-3432-4F03-A70A-6B52BCA0F6CA}"/>
+    <hyperlink ref="A583" r:id="rId73" xr:uid="{214BC210-7FB6-4E45-99A8-5A1109145204}"/>
+    <hyperlink ref="A591" r:id="rId74" xr:uid="{445A0E83-ABFC-4900-93F0-0B8A337F17FF}"/>
+    <hyperlink ref="A599" r:id="rId75" xr:uid="{4D279E47-244E-41D2-8A29-2F83993E0013}"/>
+    <hyperlink ref="A607" r:id="rId76" xr:uid="{88327878-E56E-47AA-A17C-29203A8E8495}"/>
+    <hyperlink ref="A615" r:id="rId77" xr:uid="{BFE6C4B6-393E-4078-ABC2-09C08DDA2F2D}"/>
+    <hyperlink ref="A623" r:id="rId78" xr:uid="{9962D594-DFD8-4237-B71A-A7E13EED6C71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId79"/>
   </tableParts>
 </worksheet>
 </file>